--- a/MILvSAC-NOvLAL.xlsx
+++ b/MILvSAC-NOvLAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61743B2D-A32D-42D9-A98F-C28F8EAFD396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF4B7E-2A4C-45E9-B010-9AE8FE869B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Johnathan Williams (12154545)</t>
   </si>
   <si>
-    <t>Trevon Bluiett (12154580)</t>
-  </si>
-  <si>
     <t>Moritz Wagner (12154598)</t>
   </si>
   <si>
@@ -498,16 +495,10 @@
     <t>Frank Mason III (12154561)</t>
   </si>
   <si>
-    <t>Bonzie Colson (12154572)</t>
-  </si>
-  <si>
     <t>Caleb Swanigan (12154602)</t>
   </si>
   <si>
     <t>Donte DiVincenzo (12154614)</t>
-  </si>
-  <si>
-    <t>Wenyen Gabriel (12154633)</t>
   </si>
   <si>
     <t>Trevon Duval (12154637)</t>
@@ -5385,13 +5376,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47339BD8-C5D1-4EAE-92F7-B778AC8E1D8D}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -6874,19 +6868,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52">
-        <v>12154580</v>
+        <v>12154598</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F52">
         <v>3000</v>
@@ -6895,27 +6889,27 @@
         <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>12154598</v>
+        <v>12154644</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F53">
         <v>3000</v>
@@ -6927,53 +6921,53 @@
         <v>78</v>
       </c>
       <c r="I53">
-        <v>6.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54">
-        <v>12154644</v>
+        <v>12154424</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F54">
         <v>3000</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I54">
-        <v>3.69</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
         <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55">
-        <v>12154424</v>
+        <v>12154474</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F55">
         <v>3000</v>
@@ -6985,24 +6979,24 @@
         <v>93</v>
       </c>
       <c r="I55">
-        <v>11.46</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56">
-        <v>12154474</v>
+        <v>12154525</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F56">
         <v>3000</v>
@@ -7014,24 +7008,24 @@
         <v>93</v>
       </c>
       <c r="I56">
-        <v>23.09</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
         <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57">
-        <v>12154525</v>
+        <v>12154535</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <v>3000</v>
@@ -7040,27 +7034,27 @@
         <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I57">
-        <v>12.34</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58">
-        <v>12154535</v>
+        <v>12154549</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F58">
         <v>3000</v>
@@ -7072,24 +7066,24 @@
         <v>81</v>
       </c>
       <c r="I58">
-        <v>11.95</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
         <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59">
-        <v>12154549</v>
+        <v>12154553</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F59">
         <v>3000</v>
@@ -7098,27 +7092,27 @@
         <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I59">
-        <v>5.48</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
         <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>12154553</v>
+        <v>12154561</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F60">
         <v>3000</v>
@@ -7130,24 +7124,24 @@
         <v>93</v>
       </c>
       <c r="I60">
-        <v>12.54</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>12154561</v>
+        <v>12154602</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F61">
         <v>3000</v>
@@ -7159,24 +7153,24 @@
         <v>93</v>
       </c>
       <c r="I61">
-        <v>10.76</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
         <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>12154572</v>
+        <v>12154614</v>
       </c>
       <c r="E62" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F62">
         <v>3000</v>
@@ -7188,24 +7182,24 @@
         <v>81</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>12154602</v>
+        <v>12154637</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F63">
         <v>3000</v>
@@ -7214,96 +7208,9 @@
         <v>80</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I63">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64">
-        <v>12154614</v>
-      </c>
-      <c r="E64" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64">
-        <v>3000</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65">
-        <v>12154633</v>
-      </c>
-      <c r="E65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65">
-        <v>3000</v>
-      </c>
-      <c r="G65" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s">
-        <v>93</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66">
-        <v>12154637</v>
-      </c>
-      <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66">
-        <v>3000</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66">
         <v>4.88</v>
       </c>
     </row>
